--- a/dados/historico/times/rodada_26/Fluminense.xlsx
+++ b/dados/historico/times/rodada_26/Fluminense.xlsx
@@ -712,7 +712,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -729,10 +729,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Matchweek 2</t>
-        </is>
+      <c r="E2" t="n">
+        <v>2</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -900,7 +898,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -917,10 +915,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Matchweek 4</t>
-        </is>
+      <c r="E3" t="n">
+        <v>4</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -1088,7 +1084,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1105,10 +1101,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Matchweek 6</t>
-        </is>
+      <c r="E4" t="n">
+        <v>6</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -1276,7 +1270,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1293,10 +1287,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Matchweek 9</t>
-        </is>
+      <c r="E5" t="n">
+        <v>9</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -1464,7 +1456,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1481,10 +1473,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Matchweek 11</t>
-        </is>
+      <c r="E6" t="n">
+        <v>11</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1652,7 +1642,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1669,10 +1659,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Matchweek 12</t>
-        </is>
+      <c r="E7" t="n">
+        <v>12</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1840,7 +1828,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1857,10 +1845,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Matchweek 14</t>
-        </is>
+      <c r="E8" t="n">
+        <v>14</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -2024,7 +2010,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -2041,10 +2027,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Matchweek 15</t>
-        </is>
+      <c r="E9" t="n">
+        <v>15</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -2212,7 +2196,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -2229,10 +2213,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Matchweek 17</t>
-        </is>
+      <c r="E10" t="n">
+        <v>17</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -2396,7 +2378,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2413,10 +2395,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Matchweek 18</t>
-        </is>
+      <c r="E11" t="n">
+        <v>18</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -2584,7 +2564,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -2601,10 +2581,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Matchweek 20</t>
-        </is>
+      <c r="E12" t="n">
+        <v>20</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -2770,7 +2748,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2787,10 +2765,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Matchweek 22</t>
-        </is>
+      <c r="E13" t="n">
+        <v>22</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -2956,7 +2932,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -2973,10 +2949,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Matchweek 24</t>
-        </is>
+      <c r="E14" t="n">
+        <v>24</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -3144,7 +3118,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -3161,10 +3135,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Matchweek 26</t>
-        </is>
+      <c r="E15" t="n">
+        <v>26</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -3330,7 +3302,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -3347,10 +3319,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Matchweek 7</t>
-        </is>
+      <c r="E16" t="n">
+        <v>7</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -3516,7 +3486,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -3533,10 +3503,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Matchweek 19</t>
-        </is>
+      <c r="E17" t="n">
+        <v>19</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -3702,7 +3670,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -3719,10 +3687,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Matchweek 3</t>
-        </is>
+      <c r="E18" t="n">
+        <v>3</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -3890,7 +3856,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -3907,10 +3873,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Matchweek 21</t>
-        </is>
+      <c r="E19" t="n">
+        <v>21</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -4078,7 +4042,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -4095,10 +4059,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Matchweek 13</t>
-        </is>
+      <c r="E20" t="n">
+        <v>13</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -4266,7 +4228,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -4283,10 +4245,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Matchweek 25</t>
-        </is>
+      <c r="E21" t="n">
+        <v>25</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -4452,16 +4412,16 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>160</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-05-10</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4469,14 +4429,12 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Matchweek 8</t>
-        </is>
+      <c r="E22" t="n">
+        <v>5</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -4486,14 +4444,14 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -4501,155 +4459,155 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="M22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>48</v>
+      </c>
+      <c r="O22" t="n">
+        <v>51846</v>
+      </c>
+      <c r="P22" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1</v>
+      </c>
+      <c r="X22" t="n">
         <v>1.3</v>
       </c>
-      <c r="N22" t="n">
-        <v>30</v>
-      </c>
-      <c r="O22" t="n">
-        <v>34624</v>
-      </c>
-      <c r="P22" t="n">
+      <c r="Y22" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>7458</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>2342</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>33</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>56</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>47</v>
+      </c>
+      <c r="AU22" t="n">
         <v>14</v>
       </c>
-      <c r="Q22" t="n">
-        <v>4</v>
-      </c>
-      <c r="R22" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>100</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>4488</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>1700</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AM22" t="n">
+      <c r="AV22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY22" t="n">
         <v>9</v>
       </c>
-      <c r="AN22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>20</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>12</v>
-      </c>
       <c r="AZ22" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BA22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BB22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC22" t="n">
         <v>0</v>
       </c>
       <c r="BD22" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2023-05-10</t>
+          <t>2023-05-28</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4657,14 +4615,12 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Matchweek 5</t>
-        </is>
+      <c r="E23" t="n">
+        <v>8</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -4674,14 +4630,14 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -4689,31 +4645,31 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="N23" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="O23" t="n">
-        <v>51846</v>
+        <v>34624</v>
       </c>
       <c r="P23" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="Q23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R23" t="n">
-        <v>19.2</v>
+        <v>28.6</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -4722,113 +4678,113 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>4488</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1700</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK23" t="n">
         <v>1.3</v>
       </c>
-      <c r="Y23" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>-2.1</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="AB23" t="n">
+      <c r="AL23" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AU23" t="n">
         <v>6</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AV23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW23" t="n">
         <v>4</v>
       </c>
-      <c r="AD23" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>7458</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>2342</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>33</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>5</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>56</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>4</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>47</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>14</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>0</v>
-      </c>
       <c r="AX23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY23" t="n">
         <v>12</v>
       </c>
-      <c r="AY23" t="n">
-        <v>9</v>
-      </c>
       <c r="AZ23" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BA23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BB23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC23" t="n">
         <v>0</v>
       </c>
       <c r="BD23" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Corinthians</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>218</v>
+        <v>21</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -4845,10 +4801,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Matchweek 23</t>
-        </is>
+      <c r="E24" t="n">
+        <v>23</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -5014,7 +4968,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -5031,10 +4985,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Matchweek 10</t>
-        </is>
+      <c r="E25" t="n">
+        <v>10</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -5202,7 +5154,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>241</v>
+        <v>15</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -5219,10 +5171,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Matchweek 16</t>
-        </is>
+      <c r="E26" t="n">
+        <v>16</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -5388,7 +5338,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>246</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -5405,10 +5355,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Matchweek 1</t>
-        </is>
+      <c r="E27" t="n">
+        <v>1</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>

--- a/dados/historico/times/rodada_26/Fluminense.xlsx
+++ b/dados/historico/times/rodada_26/Fluminense.xlsx
@@ -712,7 +712,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>8</v>
+        <v>161</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>33</v>
+        <v>179</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>18</v>
+        <v>246</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>24</v>
+        <v>284</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>4</v>
+        <v>316</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>11</v>
+        <v>345</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>21</v>
+        <v>437</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>14</v>
+        <v>451</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>15</v>
+        <v>483</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>1</v>
+        <v>494</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
